--- a/Code/Results/Cases/Case_5_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_221/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.60941043056108</v>
+        <v>12.77268770170907</v>
       </c>
       <c r="C2">
-        <v>13.45128317112345</v>
+        <v>8.008463659254859</v>
       </c>
       <c r="D2">
-        <v>6.310378363922695</v>
+        <v>9.467861914974691</v>
       </c>
       <c r="E2">
-        <v>8.607711143311649</v>
+        <v>13.62946272699483</v>
       </c>
       <c r="F2">
-        <v>22.21140423597284</v>
+        <v>30.704331109877</v>
       </c>
       <c r="I2">
-        <v>12.51052532378968</v>
+        <v>20.51028001455472</v>
       </c>
       <c r="J2">
-        <v>5.66775047477956</v>
+        <v>9.899118514847585</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.13533586746064</v>
+        <v>16.36564763522155</v>
       </c>
       <c r="N2">
-        <v>11.78303188051671</v>
+        <v>17.44350750119754</v>
       </c>
       <c r="O2">
-        <v>15.55826943413913</v>
+        <v>22.8532742165727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.38138660524998</v>
+        <v>12.28844379339649</v>
       </c>
       <c r="C3">
-        <v>12.57599312777181</v>
+        <v>7.586567973294963</v>
       </c>
       <c r="D3">
-        <v>6.144492899775691</v>
+        <v>9.457719728724125</v>
       </c>
       <c r="E3">
-        <v>8.493267481079663</v>
+        <v>13.64549136321961</v>
       </c>
       <c r="F3">
-        <v>21.68297177096637</v>
+        <v>30.72502909154314</v>
       </c>
       <c r="I3">
-        <v>12.62351343527835</v>
+        <v>20.60406842943532</v>
       </c>
       <c r="J3">
-        <v>5.698582049322193</v>
+        <v>9.92371257768349</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.40669144228146</v>
+        <v>16.22393802648412</v>
       </c>
       <c r="N3">
-        <v>11.92524173872038</v>
+        <v>17.49257171515311</v>
       </c>
       <c r="O3">
-        <v>15.32552700751939</v>
+        <v>22.89958564744176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.58262218617866</v>
+        <v>11.98255873707406</v>
       </c>
       <c r="C4">
-        <v>12.00725434331105</v>
+        <v>7.315542951004718</v>
       </c>
       <c r="D4">
-        <v>6.042852060773455</v>
+        <v>9.452769911162383</v>
       </c>
       <c r="E4">
-        <v>8.427090439669925</v>
+        <v>13.65750522157899</v>
       </c>
       <c r="F4">
-        <v>21.37316037649396</v>
+        <v>30.74583083609299</v>
       </c>
       <c r="I4">
-        <v>12.70534602442655</v>
+        <v>20.66612236587302</v>
       </c>
       <c r="J4">
-        <v>5.719950596269376</v>
+        <v>9.939934116059327</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.94304089011805</v>
+        <v>16.13878318282086</v>
       </c>
       <c r="N4">
-        <v>12.01590056530797</v>
+        <v>17.52444956731046</v>
       </c>
       <c r="O4">
-        <v>15.19621247565811</v>
+        <v>22.93369522678467</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.24581807079773</v>
+        <v>11.85594305670654</v>
       </c>
       <c r="C5">
-        <v>11.76759245467188</v>
+        <v>7.202197511780086</v>
       </c>
       <c r="D5">
-        <v>6.001540555459588</v>
+        <v>9.45107592091407</v>
       </c>
       <c r="E5">
-        <v>8.401157162298027</v>
+        <v>13.66294735658101</v>
       </c>
       <c r="F5">
-        <v>21.25068246877466</v>
+        <v>30.75634032176948</v>
       </c>
       <c r="I5">
-        <v>12.74167088361049</v>
+        <v>20.69253136154953</v>
       </c>
       <c r="J5">
-        <v>5.729256393599065</v>
+        <v>9.946826644733449</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.75022185177261</v>
+        <v>16.10457990110749</v>
       </c>
       <c r="N5">
-        <v>12.0536803994865</v>
+        <v>17.53788156545414</v>
       </c>
       <c r="O5">
-        <v>15.14688828843882</v>
+        <v>22.94901834871429</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.18920813616741</v>
+        <v>11.83480578874713</v>
       </c>
       <c r="C6">
-        <v>11.72731929508163</v>
+        <v>7.183205080059635</v>
       </c>
       <c r="D6">
-        <v>5.99468895784142</v>
+        <v>9.450814200735421</v>
       </c>
       <c r="E6">
-        <v>8.39691354843508</v>
+        <v>13.66388402241109</v>
       </c>
       <c r="F6">
-        <v>21.23057533994274</v>
+        <v>30.75820808461284</v>
       </c>
       <c r="I6">
-        <v>12.74787802336849</v>
+        <v>20.69698423763949</v>
       </c>
       <c r="J6">
-        <v>5.730837300571576</v>
+        <v>9.947988192524104</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.71797713208988</v>
+        <v>16.0989314525612</v>
       </c>
       <c r="N6">
-        <v>12.06000406735811</v>
+        <v>17.54013863172739</v>
       </c>
       <c r="O6">
-        <v>15.13890019421862</v>
+        <v>22.95164858460267</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.57812574614612</v>
+        <v>11.98085884854871</v>
       </c>
       <c r="C7">
-        <v>12.00405417794157</v>
+        <v>7.314025916031093</v>
       </c>
       <c r="D7">
-        <v>6.042294408994251</v>
+        <v>9.452745754855696</v>
       </c>
       <c r="E7">
-        <v>8.426736500710081</v>
+        <v>13.65757640365436</v>
       </c>
       <c r="F7">
-        <v>21.37149321165855</v>
+        <v>30.74596434485029</v>
       </c>
       <c r="I7">
-        <v>12.70582405869309</v>
+        <v>20.66647398832959</v>
       </c>
       <c r="J7">
-        <v>5.720073695874809</v>
+        <v>9.940025928398628</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.9404558582094</v>
+        <v>16.13831984809511</v>
       </c>
       <c r="N7">
-        <v>12.01640669922782</v>
+        <v>17.52462892705671</v>
       </c>
       <c r="O7">
-        <v>15.19553368508902</v>
+        <v>22.9338961224392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.19524617170019</v>
+        <v>12.60760238019068</v>
       </c>
       <c r="C8">
-        <v>13.15596474796228</v>
+        <v>7.865541220452677</v>
       </c>
       <c r="D8">
-        <v>6.253168602833576</v>
+        <v>9.464100896948509</v>
       </c>
       <c r="E8">
-        <v>8.567405695974752</v>
+        <v>13.63453869026721</v>
       </c>
       <c r="F8">
-        <v>22.02621736214371</v>
+        <v>30.70978688691693</v>
       </c>
       <c r="I8">
-        <v>12.54680269826977</v>
+        <v>20.54168990985177</v>
       </c>
       <c r="J8">
-        <v>5.677865948342804</v>
+        <v>9.907366139145191</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.88758886578147</v>
+        <v>16.31642018386841</v>
       </c>
       <c r="N8">
-        <v>11.83136925379326</v>
+        <v>17.46006170892699</v>
       </c>
       <c r="O8">
-        <v>15.47517578403353</v>
+        <v>22.86806266419976</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.01369354466001</v>
+        <v>13.76153456963656</v>
       </c>
       <c r="C9">
-        <v>15.16782880687214</v>
+        <v>8.848056819868191</v>
       </c>
       <c r="D9">
-        <v>6.66613395624131</v>
+        <v>9.496417740375165</v>
       </c>
       <c r="E9">
-        <v>8.875387801864481</v>
+        <v>13.60658677707743</v>
       </c>
       <c r="F9">
-        <v>23.42201553613218</v>
+        <v>30.70312280218187</v>
       </c>
       <c r="I9">
-        <v>12.34108638787921</v>
+        <v>20.33251997102021</v>
       </c>
       <c r="J9">
-        <v>5.615152108380567</v>
+        <v>9.852198443268485</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.68372092995413</v>
+        <v>16.67897920019148</v>
       </c>
       <c r="N9">
-        <v>11.4952830637778</v>
+        <v>17.3473079766124</v>
       </c>
       <c r="O9">
-        <v>16.13283332292748</v>
+        <v>22.7841309005965</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.87293437547046</v>
+        <v>14.5551893360526</v>
       </c>
       <c r="C10">
-        <v>16.49762215899998</v>
+        <v>9.505375168991534</v>
       </c>
       <c r="D10">
-        <v>6.96641620383248</v>
+        <v>9.526162329209077</v>
       </c>
       <c r="E10">
-        <v>9.120704321156357</v>
+        <v>13.5965324558587</v>
       </c>
       <c r="F10">
-        <v>24.50970241118928</v>
+        <v>30.73743428077262</v>
       </c>
       <c r="I10">
-        <v>12.26507674612474</v>
+        <v>20.20061897495418</v>
       </c>
       <c r="J10">
-        <v>5.582340333949936</v>
+        <v>9.817059750133954</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.06806395298178</v>
+        <v>16.95152496174483</v>
       </c>
       <c r="N10">
-        <v>11.26513265220785</v>
+        <v>17.27286232805365</v>
       </c>
       <c r="O10">
-        <v>16.68394910004132</v>
+        <v>22.7501751735901</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.67366384434423</v>
+        <v>14.90306539094039</v>
       </c>
       <c r="C11">
-        <v>17.07094730676603</v>
+        <v>9.78977009321599</v>
       </c>
       <c r="D11">
-        <v>7.101830891010025</v>
+        <v>9.540967197720265</v>
       </c>
       <c r="E11">
-        <v>9.236304346214535</v>
+        <v>13.59422815910757</v>
       </c>
       <c r="F11">
-        <v>25.01678205519176</v>
+        <v>30.76153681830931</v>
       </c>
       <c r="I11">
-        <v>12.24917180790542</v>
+        <v>20.14536765739793</v>
       </c>
       <c r="J11">
-        <v>5.570536205679563</v>
+        <v>9.80224125876796</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.66532649677054</v>
+        <v>17.07643441589403</v>
       </c>
       <c r="N11">
-        <v>11.1642067380566</v>
+        <v>17.24080618717757</v>
       </c>
       <c r="O11">
-        <v>16.94953907806201</v>
+        <v>22.74077200883927</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.97047204835434</v>
+        <v>15.03280613820753</v>
       </c>
       <c r="C12">
-        <v>17.28355680163329</v>
+        <v>9.895321555292609</v>
       </c>
       <c r="D12">
-        <v>7.15290118738546</v>
+        <v>9.546753788058526</v>
       </c>
       <c r="E12">
-        <v>9.280642692559756</v>
+        <v>13.59368114416941</v>
       </c>
       <c r="F12">
-        <v>25.21047120558767</v>
+        <v>30.77188140559849</v>
       </c>
       <c r="I12">
-        <v>12.24603472841195</v>
+        <v>20.1251308556785</v>
       </c>
       <c r="J12">
-        <v>5.566536709131224</v>
+        <v>9.79679729303005</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.88687871749132</v>
+        <v>17.12383231464361</v>
       </c>
       <c r="N12">
-        <v>11.1265453414997</v>
+        <v>17.22892673254165</v>
       </c>
       <c r="O12">
-        <v>17.0522530364686</v>
+        <v>22.73808168012685</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.90683310147658</v>
+        <v>15.00495420349516</v>
       </c>
       <c r="C13">
-        <v>17.23796670720225</v>
+        <v>9.872685008286552</v>
       </c>
       <c r="D13">
-        <v>7.141912105791526</v>
+        <v>9.545499570534805</v>
       </c>
       <c r="E13">
-        <v>9.271068787960811</v>
+        <v>13.59378448745635</v>
       </c>
       <c r="F13">
-        <v>25.16868397661954</v>
+        <v>30.76959944239131</v>
       </c>
       <c r="I13">
-        <v>12.24657877815965</v>
+        <v>20.12945867793556</v>
       </c>
       <c r="J13">
-        <v>5.567376792843989</v>
+        <v>9.79796230363789</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.83936799935969</v>
+        <v>17.1136205671083</v>
       </c>
       <c r="N13">
-        <v>11.13463135828762</v>
+        <v>17.23147365481156</v>
       </c>
       <c r="O13">
-        <v>17.03003655196265</v>
+        <v>22.73862236064705</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.69821051648414</v>
+        <v>14.91377969376548</v>
       </c>
       <c r="C14">
-        <v>17.08852864015809</v>
+        <v>9.798497019048117</v>
       </c>
       <c r="D14">
-        <v>7.106036851037774</v>
+        <v>9.541439667388584</v>
       </c>
       <c r="E14">
-        <v>9.23994087377547</v>
+        <v>13.59417663581345</v>
       </c>
       <c r="F14">
-        <v>25.03268404456385</v>
+        <v>30.76236350079856</v>
       </c>
       <c r="I14">
-        <v>12.24885472172559</v>
+        <v>20.14368900740047</v>
       </c>
       <c r="J14">
-        <v>5.570197608346432</v>
+        <v>9.801790025303534</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.68364597149096</v>
+        <v>17.0803321225941</v>
       </c>
       <c r="N14">
-        <v>11.1610970539868</v>
+        <v>17.23982366026928</v>
       </c>
       <c r="O14">
-        <v>16.95794651823996</v>
+        <v>22.7405332227313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.56959035242287</v>
+        <v>14.8576704794704</v>
       </c>
       <c r="C15">
-        <v>16.99640945720951</v>
+        <v>9.752774640461611</v>
       </c>
       <c r="D15">
-        <v>7.084034045184723</v>
+        <v>9.538976252822264</v>
       </c>
       <c r="E15">
-        <v>9.220947094162545</v>
+        <v>13.59445921187717</v>
       </c>
       <c r="F15">
-        <v>24.94959482504097</v>
+        <v>30.75808969033578</v>
       </c>
       <c r="I15">
-        <v>12.25063063098696</v>
+        <v>20.15249486367334</v>
       </c>
       <c r="J15">
-        <v>5.571987366992485</v>
+        <v>9.804156418692024</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.58766193820018</v>
+        <v>17.05995361050252</v>
       </c>
       <c r="N15">
-        <v>11.17738108573633</v>
+        <v>17.24497205513272</v>
       </c>
       <c r="O15">
-        <v>16.91406805754854</v>
+        <v>22.74181707109294</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.81970400557361</v>
+        <v>14.53218113448668</v>
       </c>
       <c r="C16">
-        <v>16.45952210221301</v>
+        <v>9.486491436027194</v>
       </c>
       <c r="D16">
-        <v>6.957539348094429</v>
+        <v>9.525220188020361</v>
       </c>
       <c r="E16">
-        <v>9.113229071462605</v>
+        <v>13.59672865137266</v>
       </c>
       <c r="F16">
-        <v>24.47680218981921</v>
+        <v>30.73602973628601</v>
       </c>
       <c r="I16">
-        <v>12.26650898242972</v>
+        <v>20.20432559348486</v>
       </c>
       <c r="J16">
-        <v>5.583176399043166</v>
+        <v>9.818051621804429</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.02838224911668</v>
+        <v>16.94337741684663</v>
       </c>
       <c r="N16">
-        <v>11.27180548527082</v>
+        <v>17.27499362467987</v>
       </c>
       <c r="O16">
-        <v>16.66689178348753</v>
+        <v>22.75091143466527</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.34818184788469</v>
+        <v>14.32905761750773</v>
       </c>
       <c r="C17">
-        <v>16.12209770077602</v>
+        <v>9.3193589428026</v>
       </c>
       <c r="D17">
-        <v>6.879607050104246</v>
+        <v>9.517105567755124</v>
       </c>
       <c r="E17">
-        <v>9.048164028758242</v>
+        <v>13.59870163475667</v>
       </c>
       <c r="F17">
-        <v>24.1898330559839</v>
+        <v>30.72466979058258</v>
       </c>
       <c r="I17">
-        <v>12.28117389257007</v>
+        <v>20.23734068947757</v>
       </c>
       <c r="J17">
-        <v>5.590855098804172</v>
+        <v>9.826874422917706</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.67699928076323</v>
+        <v>16.87207354727391</v>
       </c>
       <c r="N17">
-        <v>11.33070733606802</v>
+        <v>17.29387385010865</v>
       </c>
       <c r="O17">
-        <v>16.51907068647674</v>
+        <v>22.75803957671052</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.07273037201101</v>
+        <v>14.21099256471294</v>
       </c>
       <c r="C18">
-        <v>15.92504221601272</v>
+        <v>9.221854218464074</v>
       </c>
       <c r="D18">
-        <v>6.834672887480742</v>
+        <v>9.512558341148779</v>
       </c>
       <c r="E18">
-        <v>9.011118000078465</v>
+        <v>13.60005011004723</v>
       </c>
       <c r="F18">
-        <v>24.02593763379508</v>
+        <v>30.71893566975839</v>
       </c>
       <c r="I18">
-        <v>12.29135400183418</v>
+        <v>20.25677714683831</v>
       </c>
       <c r="J18">
-        <v>5.595564195280342</v>
+        <v>9.83205885399769</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.47183235682063</v>
+        <v>16.83115084836158</v>
       </c>
       <c r="N18">
-        <v>11.36494000382599</v>
+        <v>17.3049036211629</v>
       </c>
       <c r="O18">
-        <v>16.43544915333156</v>
+        <v>22.76270828476727</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.97873625877537</v>
+        <v>14.17080912926519</v>
       </c>
       <c r="C19">
-        <v>15.85780974386359</v>
+        <v>9.188606075284873</v>
       </c>
       <c r="D19">
-        <v>6.819441359880743</v>
+        <v>9.511039438762484</v>
       </c>
       <c r="E19">
-        <v>8.998640107341339</v>
+        <v>13.60054339960226</v>
       </c>
       <c r="F19">
-        <v>23.9706481200291</v>
+        <v>30.7171316646506</v>
       </c>
       <c r="I19">
-        <v>12.29509450194926</v>
+        <v>20.26343470332298</v>
       </c>
       <c r="J19">
-        <v>5.597208216885344</v>
+        <v>9.833833076862513</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.40183912689672</v>
+        <v>16.81731157641157</v>
       </c>
       <c r="N19">
-        <v>11.37659096443648</v>
+        <v>17.30866739418883</v>
       </c>
       <c r="O19">
-        <v>16.40737694648085</v>
+        <v>22.76438666771556</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.3988149889952</v>
+        <v>14.35080891992601</v>
       </c>
       <c r="C20">
-        <v>16.15832496593668</v>
+        <v>9.337293057572857</v>
       </c>
       <c r="D20">
-        <v>6.887914704275577</v>
+        <v>9.517956974599542</v>
       </c>
       <c r="E20">
-        <v>9.055051320124162</v>
+        <v>13.59846949871771</v>
       </c>
       <c r="F20">
-        <v>24.22026192749712</v>
+        <v>30.72579632251312</v>
       </c>
       <c r="I20">
-        <v>12.27943071917478</v>
+        <v>20.2337798905919</v>
       </c>
       <c r="J20">
-        <v>5.590007262135881</v>
+        <v>9.825923859605547</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.71472100076252</v>
+        <v>16.87965497377822</v>
       </c>
       <c r="N20">
-        <v>11.32440040859437</v>
+        <v>17.29184639091331</v>
       </c>
       <c r="O20">
-        <v>16.53466145919044</v>
+        <v>22.75722189437795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.7596614583264</v>
+        <v>14.94061465779303</v>
       </c>
       <c r="C21">
-        <v>17.1325438472418</v>
+        <v>9.820346261101747</v>
       </c>
       <c r="D21">
-        <v>7.116580216304428</v>
+        <v>9.542627289559643</v>
       </c>
       <c r="E21">
-        <v>9.249068712438582</v>
+        <v>13.59405262322757</v>
       </c>
       <c r="F21">
-        <v>25.07258594250562</v>
+        <v>30.76445586801838</v>
       </c>
       <c r="I21">
-        <v>12.24810628669959</v>
+        <v>20.13949058591613</v>
       </c>
       <c r="J21">
-        <v>5.569356120730906</v>
+        <v>9.800661187281037</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.72951020354981</v>
+        <v>17.09010738760552</v>
       </c>
       <c r="N21">
-        <v>11.15330818836302</v>
+        <v>17.23736402371481</v>
       </c>
       <c r="O21">
-        <v>16.97906301607593</v>
+        <v>22.73994832406407</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.61172055544577</v>
+        <v>15.31443673450954</v>
       </c>
       <c r="C22">
-        <v>17.74306939667423</v>
+        <v>10.1235469628845</v>
       </c>
       <c r="D22">
-        <v>7.26479775327129</v>
+        <v>9.559800295244035</v>
       </c>
       <c r="E22">
-        <v>9.37914719581409</v>
+        <v>13.59306317044509</v>
       </c>
       <c r="F22">
-        <v>25.6393213477163</v>
+        <v>30.79681578889582</v>
       </c>
       <c r="I22">
-        <v>12.24454963532359</v>
+        <v>20.08186486465045</v>
       </c>
       <c r="J22">
-        <v>5.558612501489935</v>
+        <v>9.785126638568691</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.36584245701385</v>
+        <v>17.22820141960694</v>
       </c>
       <c r="N22">
-        <v>11.04474525109107</v>
+        <v>17.20326896075478</v>
       </c>
       <c r="O22">
-        <v>17.28198242698013</v>
+        <v>22.73373293858841</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.16035345858114</v>
+        <v>15.11601637394322</v>
       </c>
       <c r="C23">
-        <v>17.41959921304315</v>
+        <v>9.962878185970688</v>
       </c>
       <c r="D23">
-        <v>7.185815045510187</v>
+        <v>9.550539697787192</v>
       </c>
       <c r="E23">
-        <v>9.309426066399837</v>
+        <v>13.59341795348192</v>
       </c>
       <c r="F23">
-        <v>25.33598622014503</v>
+        <v>30.77889725296061</v>
       </c>
       <c r="I23">
-        <v>12.24483299525366</v>
+        <v>20.11225417656551</v>
       </c>
       <c r="J23">
-        <v>5.564087248362982</v>
+        <v>9.793328485767052</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.02866218381</v>
+        <v>17.15445941121228</v>
       </c>
       <c r="N23">
-        <v>11.10238385546613</v>
+        <v>17.22132798713882</v>
       </c>
       <c r="O23">
-        <v>17.11916730328732</v>
+        <v>22.73658562189202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.37593735351224</v>
+        <v>14.34097915596245</v>
       </c>
       <c r="C24">
-        <v>16.14195617195343</v>
+        <v>9.329189458028726</v>
       </c>
       <c r="D24">
-        <v>6.884159215341813</v>
+        <v>9.517571685873163</v>
       </c>
       <c r="E24">
-        <v>9.051936451127544</v>
+        <v>13.59857378021666</v>
       </c>
       <c r="F24">
-        <v>24.20650164149688</v>
+        <v>30.72528453494909</v>
       </c>
       <c r="I24">
-        <v>12.28021337511774</v>
+        <v>20.23538830864397</v>
       </c>
       <c r="J24">
-        <v>5.590389653375821</v>
+        <v>9.826353260123055</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.69767683342224</v>
+        <v>16.87622718743029</v>
       </c>
       <c r="N24">
-        <v>11.32725062159138</v>
+        <v>17.29276245916976</v>
       </c>
       <c r="O24">
-        <v>16.52760862611201</v>
+        <v>22.75758979113068</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.28863570424882</v>
+        <v>13.45833705309724</v>
       </c>
       <c r="C25">
-        <v>14.64979433420751</v>
+        <v>8.593344972594984</v>
       </c>
       <c r="D25">
-        <v>6.554776600034436</v>
+        <v>9.486611571696962</v>
       </c>
       <c r="E25">
-        <v>8.788681816485592</v>
+        <v>13.61230591894635</v>
       </c>
       <c r="F25">
-        <v>23.03305379054862</v>
+        <v>30.6980371149369</v>
       </c>
       <c r="I25">
-        <v>12.38432396838604</v>
+        <v>20.38529031445392</v>
       </c>
       <c r="J25">
-        <v>5.629867102095987</v>
+        <v>9.866174316482107</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.15844603067903</v>
+        <v>16.57967132168922</v>
       </c>
       <c r="N25">
-        <v>11.58329673944488</v>
+        <v>17.37633269123383</v>
       </c>
       <c r="O25">
-        <v>15.94304996127806</v>
+        <v>22.8019813695105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_221/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.77268770170907</v>
+        <v>18.60941043056107</v>
       </c>
       <c r="C2">
-        <v>8.008463659254859</v>
+        <v>13.45128317112339</v>
       </c>
       <c r="D2">
-        <v>9.467861914974691</v>
+        <v>6.310378363922695</v>
       </c>
       <c r="E2">
-        <v>13.62946272699483</v>
+        <v>8.607711143311644</v>
       </c>
       <c r="F2">
-        <v>30.704331109877</v>
+        <v>22.21140423597285</v>
       </c>
       <c r="I2">
-        <v>20.51028001455472</v>
+        <v>12.51052532378966</v>
       </c>
       <c r="J2">
-        <v>9.899118514847585</v>
+        <v>5.667750474779563</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.36564763522155</v>
+        <v>14.13533586746064</v>
       </c>
       <c r="N2">
-        <v>17.44350750119754</v>
+        <v>11.78303188051667</v>
       </c>
       <c r="O2">
-        <v>22.8532742165727</v>
+        <v>15.55826943413914</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.28844379339649</v>
+        <v>17.38138660525007</v>
       </c>
       <c r="C3">
-        <v>7.586567973294963</v>
+        <v>12.57599312777181</v>
       </c>
       <c r="D3">
-        <v>9.457719728724125</v>
+        <v>6.144492899775742</v>
       </c>
       <c r="E3">
-        <v>13.64549136321961</v>
+        <v>8.493267481079656</v>
       </c>
       <c r="F3">
-        <v>30.72502909154314</v>
+        <v>21.68297177096626</v>
       </c>
       <c r="I3">
-        <v>20.60406842943532</v>
+        <v>12.62351343527825</v>
       </c>
       <c r="J3">
-        <v>9.92371257768349</v>
+        <v>5.698582049322192</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.22393802648412</v>
+        <v>13.40669144228144</v>
       </c>
       <c r="N3">
-        <v>17.49257171515311</v>
+        <v>11.92524173872035</v>
       </c>
       <c r="O3">
-        <v>22.89958564744176</v>
+        <v>15.32552700751928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.98255873707406</v>
+        <v>16.58262218617864</v>
       </c>
       <c r="C4">
-        <v>7.315542951004718</v>
+        <v>12.00725434331109</v>
       </c>
       <c r="D4">
-        <v>9.452769911162383</v>
+        <v>6.042852060773581</v>
       </c>
       <c r="E4">
-        <v>13.65750522157899</v>
+        <v>8.427090439669923</v>
       </c>
       <c r="F4">
-        <v>30.74583083609299</v>
+        <v>21.37316037649388</v>
       </c>
       <c r="I4">
-        <v>20.66612236587302</v>
+        <v>12.70534602442648</v>
       </c>
       <c r="J4">
-        <v>9.939934116059327</v>
+        <v>5.719950596269346</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.13878318282086</v>
+        <v>12.94304089011804</v>
       </c>
       <c r="N4">
-        <v>17.52444956731046</v>
+        <v>12.01590056530794</v>
       </c>
       <c r="O4">
-        <v>22.93369522678467</v>
+        <v>15.19621247565803</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85594305670654</v>
+        <v>16.24581807079775</v>
       </c>
       <c r="C5">
-        <v>7.202197511780086</v>
+        <v>11.76759245467185</v>
       </c>
       <c r="D5">
-        <v>9.45107592091407</v>
+        <v>6.001540555459445</v>
       </c>
       <c r="E5">
-        <v>13.66294735658101</v>
+        <v>8.401157162297881</v>
       </c>
       <c r="F5">
-        <v>30.75634032176948</v>
+        <v>21.25068246877454</v>
       </c>
       <c r="I5">
-        <v>20.69253136154953</v>
+        <v>12.74167088361046</v>
       </c>
       <c r="J5">
-        <v>9.946826644733449</v>
+        <v>5.729256393599009</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.10457990110749</v>
+        <v>12.75022185177257</v>
       </c>
       <c r="N5">
-        <v>17.53788156545414</v>
+        <v>12.05368039948646</v>
       </c>
       <c r="O5">
-        <v>22.94901834871429</v>
+        <v>15.14688828843878</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.83480578874713</v>
+        <v>16.18920813616746</v>
       </c>
       <c r="C6">
-        <v>7.183205080059635</v>
+        <v>11.72731929508151</v>
       </c>
       <c r="D6">
-        <v>9.450814200735421</v>
+        <v>5.994688957841555</v>
       </c>
       <c r="E6">
-        <v>13.66388402241109</v>
+        <v>8.396913548435077</v>
       </c>
       <c r="F6">
-        <v>30.75820808461284</v>
+        <v>21.2305753399429</v>
       </c>
       <c r="I6">
-        <v>20.69698423763949</v>
+        <v>12.74787802336845</v>
       </c>
       <c r="J6">
-        <v>9.947988192524104</v>
+        <v>5.730837300571575</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.0989314525612</v>
+        <v>12.71797713208989</v>
       </c>
       <c r="N6">
-        <v>17.54013863172739</v>
+        <v>12.06000406735811</v>
       </c>
       <c r="O6">
-        <v>22.95164858460267</v>
+        <v>15.13890019421866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.98085884854871</v>
+        <v>16.57812574614615</v>
       </c>
       <c r="C7">
-        <v>7.314025916031093</v>
+        <v>12.00405417794153</v>
       </c>
       <c r="D7">
-        <v>9.452745754855696</v>
+        <v>6.042294408994097</v>
       </c>
       <c r="E7">
-        <v>13.65757640365436</v>
+        <v>8.426736500710087</v>
       </c>
       <c r="F7">
-        <v>30.74596434485029</v>
+        <v>21.3714932116584</v>
       </c>
       <c r="I7">
-        <v>20.66647398832959</v>
+        <v>12.70582405869296</v>
       </c>
       <c r="J7">
-        <v>9.940025928398628</v>
+        <v>5.720073695874842</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.13831984809511</v>
+        <v>12.9404558582094</v>
       </c>
       <c r="N7">
-        <v>17.52462892705671</v>
+        <v>12.01640669922775</v>
       </c>
       <c r="O7">
-        <v>22.9338961224392</v>
+        <v>15.19553368508893</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60760238019068</v>
+        <v>18.19524617170022</v>
       </c>
       <c r="C8">
-        <v>7.865541220452677</v>
+        <v>13.15596474796224</v>
       </c>
       <c r="D8">
-        <v>9.464100896948509</v>
+        <v>6.253168602833552</v>
       </c>
       <c r="E8">
-        <v>13.63453869026721</v>
+        <v>8.567405695974802</v>
       </c>
       <c r="F8">
-        <v>30.70978688691693</v>
+        <v>22.02621736214365</v>
       </c>
       <c r="I8">
-        <v>20.54168990985177</v>
+        <v>12.54680269826969</v>
       </c>
       <c r="J8">
-        <v>9.907366139145191</v>
+        <v>5.6778659483428</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.31642018386841</v>
+        <v>13.88758886578146</v>
       </c>
       <c r="N8">
-        <v>17.46006170892699</v>
+        <v>11.83136925379323</v>
       </c>
       <c r="O8">
-        <v>22.86806266419976</v>
+        <v>15.47517578403347</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.76153456963656</v>
+        <v>21.01369354466006</v>
       </c>
       <c r="C9">
-        <v>8.848056819868191</v>
+        <v>15.16782880687221</v>
       </c>
       <c r="D9">
-        <v>9.496417740375165</v>
+        <v>6.666133956241301</v>
       </c>
       <c r="E9">
-        <v>13.60658677707743</v>
+        <v>8.875387801864457</v>
       </c>
       <c r="F9">
-        <v>30.70312280218187</v>
+        <v>23.42201553613207</v>
       </c>
       <c r="I9">
-        <v>20.33251997102021</v>
+        <v>12.34108638787908</v>
       </c>
       <c r="J9">
-        <v>9.852198443268485</v>
+        <v>5.615152108380538</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.67897920019148</v>
+        <v>15.68372092995418</v>
       </c>
       <c r="N9">
-        <v>17.3473079766124</v>
+        <v>11.49528306377766</v>
       </c>
       <c r="O9">
-        <v>22.7841309005965</v>
+        <v>16.13283332292738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.5551893360526</v>
+        <v>22.87293437547044</v>
       </c>
       <c r="C10">
-        <v>9.505375168991534</v>
+        <v>16.49762215899997</v>
       </c>
       <c r="D10">
-        <v>9.526162329209077</v>
+        <v>6.966416203832406</v>
       </c>
       <c r="E10">
-        <v>13.5965324558587</v>
+        <v>9.120704321156328</v>
       </c>
       <c r="F10">
-        <v>30.73743428077262</v>
+        <v>24.5097024111893</v>
       </c>
       <c r="I10">
-        <v>20.20061897495418</v>
+        <v>12.26507674612482</v>
       </c>
       <c r="J10">
-        <v>9.817059750133954</v>
+        <v>5.58234033394994</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.95152496174483</v>
+        <v>17.06806395298178</v>
       </c>
       <c r="N10">
-        <v>17.27286232805365</v>
+        <v>11.26513265220789</v>
       </c>
       <c r="O10">
-        <v>22.7501751735901</v>
+        <v>16.68394910004137</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.90306539094039</v>
+        <v>23.67366384434425</v>
       </c>
       <c r="C11">
-        <v>9.78977009321599</v>
+        <v>17.07094730676593</v>
       </c>
       <c r="D11">
-        <v>9.540967197720265</v>
+        <v>7.101830891010017</v>
       </c>
       <c r="E11">
-        <v>13.59422815910757</v>
+        <v>9.236304346214549</v>
       </c>
       <c r="F11">
-        <v>30.76153681830931</v>
+        <v>25.01678205519178</v>
       </c>
       <c r="I11">
-        <v>20.14536765739793</v>
+        <v>12.24917180790544</v>
       </c>
       <c r="J11">
-        <v>9.80224125876796</v>
+        <v>5.570536205679563</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.07643441589403</v>
+        <v>17.66532649677054</v>
       </c>
       <c r="N11">
-        <v>17.24080618717757</v>
+        <v>11.16420673805667</v>
       </c>
       <c r="O11">
-        <v>22.74077200883927</v>
+        <v>16.94953907806204</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.03280613820753</v>
+        <v>23.97047204835432</v>
       </c>
       <c r="C12">
-        <v>9.895321555292609</v>
+        <v>17.28355680163326</v>
       </c>
       <c r="D12">
-        <v>9.546753788058526</v>
+        <v>7.152901187385373</v>
       </c>
       <c r="E12">
-        <v>13.59368114416941</v>
+        <v>9.280642692559745</v>
       </c>
       <c r="F12">
-        <v>30.77188140559849</v>
+        <v>25.21047120558771</v>
       </c>
       <c r="I12">
-        <v>20.1251308556785</v>
+        <v>12.24603472841207</v>
       </c>
       <c r="J12">
-        <v>9.79679729303005</v>
+        <v>5.566536709131278</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.12383231464361</v>
+        <v>17.88687871749131</v>
       </c>
       <c r="N12">
-        <v>17.22892673254165</v>
+        <v>11.12654534149976</v>
       </c>
       <c r="O12">
-        <v>22.73808168012685</v>
+        <v>17.05225303646868</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.00495420349516</v>
+        <v>23.90683310147657</v>
       </c>
       <c r="C13">
-        <v>9.872685008286552</v>
+        <v>17.23796670720213</v>
       </c>
       <c r="D13">
-        <v>9.545499570534805</v>
+        <v>7.141912105791448</v>
       </c>
       <c r="E13">
-        <v>13.59378448745635</v>
+        <v>9.2710687879608</v>
       </c>
       <c r="F13">
-        <v>30.76959944239131</v>
+        <v>25.16868397661955</v>
       </c>
       <c r="I13">
-        <v>20.12945867793556</v>
+        <v>12.24657877815966</v>
       </c>
       <c r="J13">
-        <v>9.79796230363789</v>
+        <v>5.567376792844071</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.1136205671083</v>
+        <v>17.83936799935967</v>
       </c>
       <c r="N13">
-        <v>17.23147365481156</v>
+        <v>11.13463135828766</v>
       </c>
       <c r="O13">
-        <v>22.73862236064705</v>
+        <v>17.0300365519627</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.91377969376548</v>
+        <v>23.69821051648415</v>
       </c>
       <c r="C14">
-        <v>9.798497019048117</v>
+        <v>17.0885286401582</v>
       </c>
       <c r="D14">
-        <v>9.541439667388584</v>
+        <v>7.106036851037886</v>
       </c>
       <c r="E14">
-        <v>13.59417663581345</v>
+        <v>9.239940873775486</v>
       </c>
       <c r="F14">
-        <v>30.76236350079856</v>
+        <v>25.0326840445639</v>
       </c>
       <c r="I14">
-        <v>20.14368900740047</v>
+        <v>12.24885472172562</v>
       </c>
       <c r="J14">
-        <v>9.801790025303534</v>
+        <v>5.570197608346373</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.0803321225941</v>
+        <v>17.68364597149097</v>
       </c>
       <c r="N14">
-        <v>17.23982366026928</v>
+        <v>11.16109705398679</v>
       </c>
       <c r="O14">
-        <v>22.7405332227313</v>
+        <v>16.95794651823996</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.8576704794704</v>
+        <v>23.56959035242294</v>
       </c>
       <c r="C15">
-        <v>9.752774640461611</v>
+        <v>16.99640945720951</v>
       </c>
       <c r="D15">
-        <v>9.538976252822264</v>
+        <v>7.084034045184745</v>
       </c>
       <c r="E15">
-        <v>13.59445921187717</v>
+        <v>9.220947094162515</v>
       </c>
       <c r="F15">
-        <v>30.75808969033578</v>
+        <v>24.94959482504096</v>
       </c>
       <c r="I15">
-        <v>20.15249486367334</v>
+        <v>12.2506306309869</v>
       </c>
       <c r="J15">
-        <v>9.804156418692024</v>
+        <v>5.571987366992517</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.05995361050252</v>
+        <v>17.58766193820022</v>
       </c>
       <c r="N15">
-        <v>17.24497205513272</v>
+        <v>11.17738108573629</v>
       </c>
       <c r="O15">
-        <v>22.74181707109294</v>
+        <v>16.9140680575485</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53218113448668</v>
+        <v>22.81970400557364</v>
       </c>
       <c r="C16">
-        <v>9.486491436027194</v>
+        <v>16.45952210221301</v>
       </c>
       <c r="D16">
-        <v>9.525220188020361</v>
+        <v>6.957539348094366</v>
       </c>
       <c r="E16">
-        <v>13.59672865137266</v>
+        <v>9.113229071462513</v>
       </c>
       <c r="F16">
-        <v>30.73602973628601</v>
+        <v>24.47680218981911</v>
       </c>
       <c r="I16">
-        <v>20.20432559348486</v>
+        <v>12.26650898242968</v>
       </c>
       <c r="J16">
-        <v>9.818051621804429</v>
+        <v>5.58317639904311</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.94337741684663</v>
+        <v>17.02838224911671</v>
       </c>
       <c r="N16">
-        <v>17.27499362467987</v>
+        <v>11.27180548527078</v>
       </c>
       <c r="O16">
-        <v>22.75091143466527</v>
+        <v>16.6668917834875</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.32905761750773</v>
+        <v>22.34818184788473</v>
       </c>
       <c r="C17">
-        <v>9.3193589428026</v>
+        <v>16.12209770077594</v>
       </c>
       <c r="D17">
-        <v>9.517105567755124</v>
+        <v>6.879607050104239</v>
       </c>
       <c r="E17">
-        <v>13.59870163475667</v>
+        <v>9.048164028758253</v>
       </c>
       <c r="F17">
-        <v>30.72466979058258</v>
+        <v>24.18983305598393</v>
       </c>
       <c r="I17">
-        <v>20.23734068947757</v>
+        <v>12.28117389257008</v>
       </c>
       <c r="J17">
-        <v>9.826874422917706</v>
+        <v>5.590855098804204</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.87207354727391</v>
+        <v>16.67699928076324</v>
       </c>
       <c r="N17">
-        <v>17.29387385010865</v>
+        <v>11.33070733606802</v>
       </c>
       <c r="O17">
-        <v>22.75803957671052</v>
+        <v>16.51907068647676</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.21099256471294</v>
+        <v>22.07273037201101</v>
       </c>
       <c r="C18">
-        <v>9.221854218464074</v>
+        <v>15.92504221601272</v>
       </c>
       <c r="D18">
-        <v>9.512558341148779</v>
+        <v>6.834672887480734</v>
       </c>
       <c r="E18">
-        <v>13.60005011004723</v>
+        <v>9.011118000078467</v>
       </c>
       <c r="F18">
-        <v>30.71893566975839</v>
+        <v>24.0259376337951</v>
       </c>
       <c r="I18">
-        <v>20.25677714683831</v>
+        <v>12.29135400183419</v>
       </c>
       <c r="J18">
-        <v>9.83205885399769</v>
+        <v>5.595564195280377</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.83115084836158</v>
+        <v>16.47183235682064</v>
       </c>
       <c r="N18">
-        <v>17.3049036211629</v>
+        <v>11.36494000382599</v>
       </c>
       <c r="O18">
-        <v>22.76270828476727</v>
+        <v>16.43544915333157</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17080912926519</v>
+        <v>21.97873625877535</v>
       </c>
       <c r="C19">
-        <v>9.188606075284873</v>
+        <v>15.85780974386363</v>
       </c>
       <c r="D19">
-        <v>9.511039438762484</v>
+        <v>6.819441359880743</v>
       </c>
       <c r="E19">
-        <v>13.60054339960226</v>
+        <v>8.998640107341386</v>
       </c>
       <c r="F19">
-        <v>30.7171316646506</v>
+        <v>23.97064812002908</v>
       </c>
       <c r="I19">
-        <v>20.26343470332298</v>
+        <v>12.2950945019493</v>
       </c>
       <c r="J19">
-        <v>9.833833076862513</v>
+        <v>5.597208216885372</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.81731157641157</v>
+        <v>16.40183912689671</v>
       </c>
       <c r="N19">
-        <v>17.30866739418883</v>
+        <v>11.37659096443648</v>
       </c>
       <c r="O19">
-        <v>22.76438666771556</v>
+        <v>16.40737694648084</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.35080891992601</v>
+        <v>22.39881498899517</v>
       </c>
       <c r="C20">
-        <v>9.337293057572857</v>
+        <v>16.15832496593665</v>
       </c>
       <c r="D20">
-        <v>9.517956974599542</v>
+        <v>6.887914704275571</v>
       </c>
       <c r="E20">
-        <v>13.59846949871771</v>
+        <v>9.055051320124246</v>
       </c>
       <c r="F20">
-        <v>30.72579632251312</v>
+        <v>24.22026192749716</v>
       </c>
       <c r="I20">
-        <v>20.2337798905919</v>
+        <v>12.27943071917481</v>
       </c>
       <c r="J20">
-        <v>9.825923859605547</v>
+        <v>5.59000726213594</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.87965497377822</v>
+        <v>16.71472100076249</v>
       </c>
       <c r="N20">
-        <v>17.29184639091331</v>
+        <v>11.32440040859436</v>
       </c>
       <c r="O20">
-        <v>22.75722189437795</v>
+        <v>16.53466145919047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.94061465779303</v>
+        <v>23.75966145832641</v>
       </c>
       <c r="C21">
-        <v>9.820346261101747</v>
+        <v>17.13254384724201</v>
       </c>
       <c r="D21">
-        <v>9.542627289559643</v>
+        <v>7.116580216304394</v>
       </c>
       <c r="E21">
-        <v>13.59405262322757</v>
+        <v>9.249068712438556</v>
       </c>
       <c r="F21">
-        <v>30.76445586801838</v>
+        <v>25.07258594250554</v>
       </c>
       <c r="I21">
-        <v>20.13949058591613</v>
+        <v>12.24810628669955</v>
       </c>
       <c r="J21">
-        <v>9.800661187281037</v>
+        <v>5.569356120730902</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.09010738760552</v>
+        <v>17.72951020354987</v>
       </c>
       <c r="N21">
-        <v>17.23736402371481</v>
+        <v>11.15330818836298</v>
       </c>
       <c r="O21">
-        <v>22.73994832406407</v>
+        <v>16.97906301607585</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.31443673450954</v>
+        <v>24.61172055544573</v>
       </c>
       <c r="C22">
-        <v>10.1235469628845</v>
+        <v>17.74306939667422</v>
       </c>
       <c r="D22">
-        <v>9.559800295244035</v>
+        <v>7.264797753271235</v>
       </c>
       <c r="E22">
-        <v>13.59306317044509</v>
+        <v>9.379147195814031</v>
       </c>
       <c r="F22">
-        <v>30.79681578889582</v>
+        <v>25.63932134771633</v>
       </c>
       <c r="I22">
-        <v>20.08186486465045</v>
+        <v>12.24454963532367</v>
       </c>
       <c r="J22">
-        <v>9.785126638568691</v>
+        <v>5.558612501489883</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.22820141960694</v>
+        <v>18.36584245701385</v>
       </c>
       <c r="N22">
-        <v>17.20326896075478</v>
+        <v>11.0447452510911</v>
       </c>
       <c r="O22">
-        <v>22.73373293858841</v>
+        <v>17.28198242698018</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.11601637394322</v>
+        <v>24.1603534585811</v>
       </c>
       <c r="C23">
-        <v>9.962878185970688</v>
+        <v>17.41959921304303</v>
       </c>
       <c r="D23">
-        <v>9.550539697787192</v>
+        <v>7.185815045510225</v>
       </c>
       <c r="E23">
-        <v>13.59341795348192</v>
+        <v>9.309426066399748</v>
       </c>
       <c r="F23">
-        <v>30.77889725296061</v>
+        <v>25.3359862201451</v>
       </c>
       <c r="I23">
-        <v>20.11225417656551</v>
+        <v>12.24483299525373</v>
       </c>
       <c r="J23">
-        <v>9.793328485767052</v>
+        <v>5.564087248362905</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.15445941121228</v>
+        <v>18.02866218381</v>
       </c>
       <c r="N23">
-        <v>17.22132798713882</v>
+        <v>11.10238385546616</v>
       </c>
       <c r="O23">
-        <v>22.73658562189202</v>
+        <v>17.11916730328738</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.34097915596245</v>
+        <v>22.37593735351233</v>
       </c>
       <c r="C24">
-        <v>9.329189458028726</v>
+        <v>16.14195617195337</v>
       </c>
       <c r="D24">
-        <v>9.517571685873163</v>
+        <v>6.884159215341791</v>
       </c>
       <c r="E24">
-        <v>13.59857378021666</v>
+        <v>9.05193645112759</v>
       </c>
       <c r="F24">
-        <v>30.72528453494909</v>
+        <v>24.20650164149685</v>
       </c>
       <c r="I24">
-        <v>20.23538830864397</v>
+        <v>12.28021337511762</v>
       </c>
       <c r="J24">
-        <v>9.826353260123055</v>
+        <v>5.590389653375874</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.87622718743029</v>
+        <v>16.69767683342224</v>
       </c>
       <c r="N24">
-        <v>17.29276245916976</v>
+        <v>11.32725062159138</v>
       </c>
       <c r="O24">
-        <v>22.75758979113068</v>
+        <v>16.52760862611197</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.45833705309724</v>
+        <v>20.28863570424883</v>
       </c>
       <c r="C25">
-        <v>8.593344972594984</v>
+        <v>14.64979433420751</v>
       </c>
       <c r="D25">
-        <v>9.486611571696962</v>
+        <v>6.55477660003435</v>
       </c>
       <c r="E25">
-        <v>13.61230591894635</v>
+        <v>8.788681816485518</v>
       </c>
       <c r="F25">
-        <v>30.6980371149369</v>
+        <v>23.03305379054862</v>
       </c>
       <c r="I25">
-        <v>20.38529031445392</v>
+        <v>12.38432396838606</v>
       </c>
       <c r="J25">
-        <v>9.866174316482107</v>
+        <v>5.629867102095909</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.57967132168922</v>
+        <v>15.15844603067903</v>
       </c>
       <c r="N25">
-        <v>17.37633269123383</v>
+        <v>11.58329673944488</v>
       </c>
       <c r="O25">
-        <v>22.8019813695105</v>
+        <v>15.94304996127808</v>
       </c>
     </row>
   </sheetData>
